--- a/TableDsl.Excel/template.xlsx
+++ b/TableDsl.Excel/template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-repos\TableDsl\TableDsl.Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git-repos\tabledsl\TableDsl.Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +179,14 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -233,19 +241,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -256,6 +261,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,9 +552,9 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -557,23 +565,23 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-    </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -584,23 +592,23 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-    </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -611,23 +619,23 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-    </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -636,23 +644,23 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-    </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -684,7 +692,7 @@
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
-      <c r="X6" s="7" t="s">
+      <c r="X6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="Y6" s="5"/>
@@ -718,7 +726,7 @@
       <c r="AW6" s="5"/>
       <c r="AX6" s="5"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -770,9 +778,9 @@
       <c r="AW7" s="5"/>
       <c r="AX7" s="5"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -794,14 +802,14 @@
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
       <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
       <c r="AH8" s="4"/>
@@ -824,9 +832,9 @@
       <c r="AY8" s="1"/>
       <c r="AZ8" s="1"/>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -848,14 +856,14 @@
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
       <c r="AF9" s="4"/>
       <c r="AG9" s="4"/>
       <c r="AH9" s="4"/>
@@ -876,9 +884,9 @@
       <c r="AW9" s="4"/>
       <c r="AX9" s="4"/>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -900,14 +908,14 @@
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
       <c r="AF10" s="4"/>
       <c r="AG10" s="4"/>
       <c r="AH10" s="4"/>
@@ -928,9 +936,9 @@
       <c r="AW10" s="4"/>
       <c r="AX10" s="4"/>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -952,14 +960,14 @@
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
       <c r="AH11" s="4"/>
@@ -980,9 +988,9 @@
       <c r="AW11" s="4"/>
       <c r="AX11" s="4"/>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1004,14 +1012,14 @@
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
       <c r="AF12" s="4"/>
       <c r="AG12" s="4"/>
       <c r="AH12" s="4"/>
@@ -1032,9 +1040,9 @@
       <c r="AW12" s="4"/>
       <c r="AX12" s="4"/>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -1056,14 +1064,14 @@
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
       <c r="AF13" s="4"/>
       <c r="AG13" s="4"/>
       <c r="AH13" s="4"/>
@@ -1084,9 +1092,9 @@
       <c r="AW13" s="4"/>
       <c r="AX13" s="4"/>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -1108,14 +1116,14 @@
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
       <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>
       <c r="AH14" s="4"/>
@@ -1136,9 +1144,9 @@
       <c r="AW14" s="4"/>
       <c r="AX14" s="4"/>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -1160,14 +1168,14 @@
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
       <c r="AH15" s="4"/>
@@ -1188,9 +1196,9 @@
       <c r="AW15" s="4"/>
       <c r="AX15" s="4"/>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1212,14 +1220,14 @@
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
       <c r="AF16" s="4"/>
       <c r="AG16" s="4"/>
       <c r="AH16" s="4"/>
@@ -1240,9 +1248,9 @@
       <c r="AW16" s="4"/>
       <c r="AX16" s="4"/>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
+    <row r="17" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1264,14 +1272,14 @@
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
       <c r="AF17" s="4"/>
       <c r="AG17" s="4"/>
       <c r="AH17" s="4"/>
@@ -1292,9 +1300,9 @@
       <c r="AW17" s="4"/>
       <c r="AX17" s="4"/>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
+    <row r="18" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -1316,14 +1324,14 @@
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
       <c r="AF18" s="4"/>
       <c r="AG18" s="4"/>
       <c r="AH18" s="4"/>
@@ -1344,9 +1352,9 @@
       <c r="AW18" s="4"/>
       <c r="AX18" s="4"/>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
+    <row r="19" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -1368,14 +1376,14 @@
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="9"/>
       <c r="AF19" s="4"/>
       <c r="AG19" s="4"/>
       <c r="AH19" s="4"/>
@@ -1396,9 +1404,9 @@
       <c r="AW19" s="4"/>
       <c r="AX19" s="4"/>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
+    <row r="20" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1420,14 +1428,14 @@
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9"/>
       <c r="AF20" s="4"/>
       <c r="AG20" s="4"/>
       <c r="AH20" s="4"/>
@@ -1448,9 +1456,9 @@
       <c r="AW20" s="4"/>
       <c r="AX20" s="4"/>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
+    <row r="21" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1472,14 +1480,14 @@
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="9"/>
       <c r="AF21" s="4"/>
       <c r="AG21" s="4"/>
       <c r="AH21" s="4"/>
@@ -1500,9 +1508,9 @@
       <c r="AW21" s="4"/>
       <c r="AX21" s="4"/>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
+    <row r="22" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -1524,14 +1532,14 @@
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
       <c r="AF22" s="4"/>
       <c r="AG22" s="4"/>
       <c r="AH22" s="4"/>
@@ -1552,9 +1560,9 @@
       <c r="AW22" s="4"/>
       <c r="AX22" s="4"/>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
+    <row r="23" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -1576,14 +1584,14 @@
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
-      <c r="AE23" s="4"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9"/>
       <c r="AF23" s="4"/>
       <c r="AG23" s="4"/>
       <c r="AH23" s="4"/>
@@ -1604,9 +1612,9 @@
       <c r="AW23" s="4"/>
       <c r="AX23" s="4"/>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
+    <row r="24" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -1628,14 +1636,14 @@
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
-      <c r="AD24" s="4"/>
-      <c r="AE24" s="4"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="9"/>
       <c r="AF24" s="4"/>
       <c r="AG24" s="4"/>
       <c r="AH24" s="4"/>
@@ -1656,9 +1664,9 @@
       <c r="AW24" s="4"/>
       <c r="AX24" s="4"/>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
+    <row r="25" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1680,14 +1688,14 @@
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="4"/>
-      <c r="AD25" s="4"/>
-      <c r="AE25" s="4"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="9"/>
+      <c r="AC25" s="9"/>
+      <c r="AD25" s="9"/>
+      <c r="AE25" s="9"/>
       <c r="AF25" s="4"/>
       <c r="AG25" s="4"/>
       <c r="AH25" s="4"/>
@@ -1708,9 +1716,9 @@
       <c r="AW25" s="4"/>
       <c r="AX25" s="4"/>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+    <row r="26" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -1732,14 +1740,14 @@
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="4"/>
-      <c r="AC26" s="4"/>
-      <c r="AD26" s="4"/>
-      <c r="AE26" s="4"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9"/>
+      <c r="AE26" s="9"/>
       <c r="AF26" s="4"/>
       <c r="AG26" s="4"/>
       <c r="AH26" s="4"/>
@@ -1760,9 +1768,9 @@
       <c r="AW26" s="4"/>
       <c r="AX26" s="4"/>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+    <row r="27" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -1784,14 +1792,14 @@
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="4"/>
-      <c r="AD27" s="4"/>
-      <c r="AE27" s="4"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="9"/>
+      <c r="AC27" s="9"/>
+      <c r="AD27" s="9"/>
+      <c r="AE27" s="9"/>
       <c r="AF27" s="4"/>
       <c r="AG27" s="4"/>
       <c r="AH27" s="4"/>
@@ -1812,7 +1820,7 @@
       <c r="AW27" s="4"/>
       <c r="AX27" s="4"/>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
@@ -1833,7 +1841,7 @@
       <c r="AW28" s="1"/>
       <c r="AX28" s="1"/>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>13</v>
       </c>
@@ -1897,525 +1905,525 @@
       <c r="AW29" s="5"/>
       <c r="AX29" s="5"/>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="2"/>
-      <c r="AC30" s="2"/>
-      <c r="AD30" s="2"/>
-      <c r="AE30" s="2"/>
-      <c r="AF30" s="2"/>
-      <c r="AG30" s="2"/>
-      <c r="AH30" s="2"/>
-      <c r="AI30" s="2"/>
-      <c r="AJ30" s="2"/>
-      <c r="AK30" s="2"/>
-      <c r="AL30" s="2"/>
-      <c r="AM30" s="2"/>
-      <c r="AN30" s="2"/>
-      <c r="AO30" s="2"/>
-      <c r="AP30" s="2"/>
-      <c r="AQ30" s="2"/>
-      <c r="AR30" s="2"/>
-      <c r="AS30" s="2"/>
-      <c r="AT30" s="2"/>
-      <c r="AU30" s="2"/>
-      <c r="AV30" s="2"/>
-      <c r="AW30" s="2"/>
-      <c r="AX30" s="2"/>
-    </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
-      <c r="AA31" s="2"/>
-      <c r="AB31" s="2"/>
-      <c r="AC31" s="2"/>
-      <c r="AD31" s="2"/>
-      <c r="AE31" s="2"/>
-      <c r="AF31" s="2"/>
-      <c r="AG31" s="2"/>
-      <c r="AH31" s="2"/>
-      <c r="AI31" s="2"/>
-      <c r="AJ31" s="2"/>
-      <c r="AK31" s="2"/>
-      <c r="AL31" s="2"/>
-      <c r="AM31" s="2"/>
-      <c r="AN31" s="2"/>
-      <c r="AO31" s="2"/>
-      <c r="AP31" s="2"/>
-      <c r="AQ31" s="2"/>
-      <c r="AR31" s="2"/>
-      <c r="AS31" s="2"/>
-      <c r="AT31" s="2"/>
-      <c r="AU31" s="2"/>
-      <c r="AV31" s="2"/>
-      <c r="AW31" s="2"/>
-      <c r="AX31" s="2"/>
-    </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
-      <c r="AB32" s="2"/>
-      <c r="AC32" s="2"/>
-      <c r="AD32" s="2"/>
-      <c r="AE32" s="2"/>
-      <c r="AF32" s="2"/>
-      <c r="AG32" s="2"/>
-      <c r="AH32" s="2"/>
-      <c r="AI32" s="2"/>
-      <c r="AJ32" s="2"/>
-      <c r="AK32" s="2"/>
-      <c r="AL32" s="2"/>
-      <c r="AM32" s="2"/>
-      <c r="AN32" s="2"/>
-      <c r="AO32" s="2"/>
-      <c r="AP32" s="2"/>
-      <c r="AQ32" s="2"/>
-      <c r="AR32" s="2"/>
-      <c r="AS32" s="2"/>
-      <c r="AT32" s="2"/>
-      <c r="AU32" s="2"/>
-      <c r="AV32" s="2"/>
-      <c r="AW32" s="2"/>
-      <c r="AX32" s="2"/>
-    </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
-      <c r="Y33" s="2"/>
-      <c r="Z33" s="2"/>
-      <c r="AA33" s="2"/>
-      <c r="AB33" s="2"/>
-      <c r="AC33" s="2"/>
-      <c r="AD33" s="2"/>
-      <c r="AE33" s="2"/>
-      <c r="AF33" s="2"/>
-      <c r="AG33" s="2"/>
-      <c r="AH33" s="2"/>
-      <c r="AI33" s="2"/>
-      <c r="AJ33" s="2"/>
-      <c r="AK33" s="2"/>
-      <c r="AL33" s="2"/>
-      <c r="AM33" s="2"/>
-      <c r="AN33" s="2"/>
-      <c r="AO33" s="2"/>
-      <c r="AP33" s="2"/>
-      <c r="AQ33" s="2"/>
-      <c r="AR33" s="2"/>
-      <c r="AS33" s="2"/>
-      <c r="AT33" s="2"/>
-      <c r="AU33" s="2"/>
-      <c r="AV33" s="2"/>
-      <c r="AW33" s="2"/>
-      <c r="AX33" s="2"/>
-    </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="2"/>
-      <c r="AC34" s="2"/>
-      <c r="AD34" s="2"/>
-      <c r="AE34" s="2"/>
-      <c r="AF34" s="2"/>
-      <c r="AG34" s="2"/>
-      <c r="AH34" s="2"/>
-      <c r="AI34" s="2"/>
-      <c r="AJ34" s="2"/>
-      <c r="AK34" s="2"/>
-      <c r="AL34" s="2"/>
-      <c r="AM34" s="2"/>
-      <c r="AN34" s="2"/>
-      <c r="AO34" s="2"/>
-      <c r="AP34" s="2"/>
-      <c r="AQ34" s="2"/>
-      <c r="AR34" s="2"/>
-      <c r="AS34" s="2"/>
-      <c r="AT34" s="2"/>
-      <c r="AU34" s="2"/>
-      <c r="AV34" s="2"/>
-      <c r="AW34" s="2"/>
-      <c r="AX34" s="2"/>
-    </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="2"/>
-      <c r="Z35" s="2"/>
-      <c r="AA35" s="2"/>
-      <c r="AB35" s="2"/>
-      <c r="AC35" s="2"/>
-      <c r="AD35" s="2"/>
-      <c r="AE35" s="2"/>
-      <c r="AF35" s="2"/>
-      <c r="AG35" s="2"/>
-      <c r="AH35" s="2"/>
-      <c r="AI35" s="2"/>
-      <c r="AJ35" s="2"/>
-      <c r="AK35" s="2"/>
-      <c r="AL35" s="2"/>
-      <c r="AM35" s="2"/>
-      <c r="AN35" s="2"/>
-      <c r="AO35" s="2"/>
-      <c r="AP35" s="2"/>
-      <c r="AQ35" s="2"/>
-      <c r="AR35" s="2"/>
-      <c r="AS35" s="2"/>
-      <c r="AT35" s="2"/>
-      <c r="AU35" s="2"/>
-      <c r="AV35" s="2"/>
-      <c r="AW35" s="2"/>
-      <c r="AX35" s="2"/>
-    </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
-      <c r="AA36" s="2"/>
-      <c r="AB36" s="2"/>
-      <c r="AC36" s="2"/>
-      <c r="AD36" s="2"/>
-      <c r="AE36" s="2"/>
-      <c r="AF36" s="2"/>
-      <c r="AG36" s="2"/>
-      <c r="AH36" s="2"/>
-      <c r="AI36" s="2"/>
-      <c r="AJ36" s="2"/>
-      <c r="AK36" s="2"/>
-      <c r="AL36" s="2"/>
-      <c r="AM36" s="2"/>
-      <c r="AN36" s="2"/>
-      <c r="AO36" s="2"/>
-      <c r="AP36" s="2"/>
-      <c r="AQ36" s="2"/>
-      <c r="AR36" s="2"/>
-      <c r="AS36" s="2"/>
-      <c r="AT36" s="2"/>
-      <c r="AU36" s="2"/>
-      <c r="AV36" s="2"/>
-      <c r="AW36" s="2"/>
-      <c r="AX36" s="2"/>
-    </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="2"/>
-      <c r="AA37" s="2"/>
-      <c r="AB37" s="2"/>
-      <c r="AC37" s="2"/>
-      <c r="AD37" s="2"/>
-      <c r="AE37" s="2"/>
-      <c r="AF37" s="2"/>
-      <c r="AG37" s="2"/>
-      <c r="AH37" s="2"/>
-      <c r="AI37" s="2"/>
-      <c r="AJ37" s="2"/>
-      <c r="AK37" s="2"/>
-      <c r="AL37" s="2"/>
-      <c r="AM37" s="2"/>
-      <c r="AN37" s="2"/>
-      <c r="AO37" s="2"/>
-      <c r="AP37" s="2"/>
-      <c r="AQ37" s="2"/>
-      <c r="AR37" s="2"/>
-      <c r="AS37" s="2"/>
-      <c r="AT37" s="2"/>
-      <c r="AU37" s="2"/>
-      <c r="AV37" s="2"/>
-      <c r="AW37" s="2"/>
-      <c r="AX37" s="2"/>
-    </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
-      <c r="AA38" s="2"/>
-      <c r="AB38" s="2"/>
-      <c r="AC38" s="2"/>
-      <c r="AD38" s="2"/>
-      <c r="AE38" s="2"/>
-      <c r="AF38" s="2"/>
-      <c r="AG38" s="2"/>
-      <c r="AH38" s="2"/>
-      <c r="AI38" s="2"/>
-      <c r="AJ38" s="2"/>
-      <c r="AK38" s="2"/>
-      <c r="AL38" s="2"/>
-      <c r="AM38" s="2"/>
-      <c r="AN38" s="2"/>
-      <c r="AO38" s="2"/>
-      <c r="AP38" s="2"/>
-      <c r="AQ38" s="2"/>
-      <c r="AR38" s="2"/>
-      <c r="AS38" s="2"/>
-      <c r="AT38" s="2"/>
-      <c r="AU38" s="2"/>
-      <c r="AV38" s="2"/>
-      <c r="AW38" s="2"/>
-      <c r="AX38" s="2"/>
-    </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
-      <c r="AA39" s="2"/>
-      <c r="AB39" s="2"/>
-      <c r="AC39" s="2"/>
-      <c r="AD39" s="2"/>
-      <c r="AE39" s="2"/>
-      <c r="AF39" s="2"/>
-      <c r="AG39" s="2"/>
-      <c r="AH39" s="2"/>
-      <c r="AI39" s="2"/>
-      <c r="AJ39" s="2"/>
-      <c r="AK39" s="2"/>
-      <c r="AL39" s="2"/>
-      <c r="AM39" s="2"/>
-      <c r="AN39" s="2"/>
-      <c r="AO39" s="2"/>
-      <c r="AP39" s="2"/>
-      <c r="AQ39" s="2"/>
-      <c r="AR39" s="2"/>
-      <c r="AS39" s="2"/>
-      <c r="AT39" s="2"/>
-      <c r="AU39" s="2"/>
-      <c r="AV39" s="2"/>
-      <c r="AW39" s="2"/>
-      <c r="AX39" s="2"/>
+    <row r="30" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="3"/>
+      <c r="AO30" s="3"/>
+      <c r="AP30" s="3"/>
+      <c r="AQ30" s="3"/>
+      <c r="AR30" s="3"/>
+      <c r="AS30" s="3"/>
+      <c r="AT30" s="3"/>
+      <c r="AU30" s="3"/>
+      <c r="AV30" s="3"/>
+      <c r="AW30" s="3"/>
+      <c r="AX30" s="3"/>
+    </row>
+    <row r="31" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="3"/>
+      <c r="AO31" s="3"/>
+      <c r="AP31" s="3"/>
+      <c r="AQ31" s="3"/>
+      <c r="AR31" s="3"/>
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="3"/>
+      <c r="AU31" s="3"/>
+      <c r="AV31" s="3"/>
+      <c r="AW31" s="3"/>
+      <c r="AX31" s="3"/>
+    </row>
+    <row r="32" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="3"/>
+      <c r="AL32" s="3"/>
+      <c r="AM32" s="3"/>
+      <c r="AN32" s="3"/>
+      <c r="AO32" s="3"/>
+      <c r="AP32" s="3"/>
+      <c r="AQ32" s="3"/>
+      <c r="AR32" s="3"/>
+      <c r="AS32" s="3"/>
+      <c r="AT32" s="3"/>
+      <c r="AU32" s="3"/>
+      <c r="AV32" s="3"/>
+      <c r="AW32" s="3"/>
+      <c r="AX32" s="3"/>
+    </row>
+    <row r="33" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3"/>
+      <c r="AM33" s="3"/>
+      <c r="AN33" s="3"/>
+      <c r="AO33" s="3"/>
+      <c r="AP33" s="3"/>
+      <c r="AQ33" s="3"/>
+      <c r="AR33" s="3"/>
+      <c r="AS33" s="3"/>
+      <c r="AT33" s="3"/>
+      <c r="AU33" s="3"/>
+      <c r="AV33" s="3"/>
+      <c r="AW33" s="3"/>
+      <c r="AX33" s="3"/>
+    </row>
+    <row r="34" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="3"/>
+      <c r="AL34" s="3"/>
+      <c r="AM34" s="3"/>
+      <c r="AN34" s="3"/>
+      <c r="AO34" s="3"/>
+      <c r="AP34" s="3"/>
+      <c r="AQ34" s="3"/>
+      <c r="AR34" s="3"/>
+      <c r="AS34" s="3"/>
+      <c r="AT34" s="3"/>
+      <c r="AU34" s="3"/>
+      <c r="AV34" s="3"/>
+      <c r="AW34" s="3"/>
+      <c r="AX34" s="3"/>
+    </row>
+    <row r="35" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3"/>
+      <c r="AI35" s="3"/>
+      <c r="AJ35" s="3"/>
+      <c r="AK35" s="3"/>
+      <c r="AL35" s="3"/>
+      <c r="AM35" s="3"/>
+      <c r="AN35" s="3"/>
+      <c r="AO35" s="3"/>
+      <c r="AP35" s="3"/>
+      <c r="AQ35" s="3"/>
+      <c r="AR35" s="3"/>
+      <c r="AS35" s="3"/>
+      <c r="AT35" s="3"/>
+      <c r="AU35" s="3"/>
+      <c r="AV35" s="3"/>
+      <c r="AW35" s="3"/>
+      <c r="AX35" s="3"/>
+    </row>
+    <row r="36" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3"/>
+      <c r="AG36" s="3"/>
+      <c r="AH36" s="3"/>
+      <c r="AI36" s="3"/>
+      <c r="AJ36" s="3"/>
+      <c r="AK36" s="3"/>
+      <c r="AL36" s="3"/>
+      <c r="AM36" s="3"/>
+      <c r="AN36" s="3"/>
+      <c r="AO36" s="3"/>
+      <c r="AP36" s="3"/>
+      <c r="AQ36" s="3"/>
+      <c r="AR36" s="3"/>
+      <c r="AS36" s="3"/>
+      <c r="AT36" s="3"/>
+      <c r="AU36" s="3"/>
+      <c r="AV36" s="3"/>
+      <c r="AW36" s="3"/>
+      <c r="AX36" s="3"/>
+    </row>
+    <row r="37" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3"/>
+      <c r="AG37" s="3"/>
+      <c r="AH37" s="3"/>
+      <c r="AI37" s="3"/>
+      <c r="AJ37" s="3"/>
+      <c r="AK37" s="3"/>
+      <c r="AL37" s="3"/>
+      <c r="AM37" s="3"/>
+      <c r="AN37" s="3"/>
+      <c r="AO37" s="3"/>
+      <c r="AP37" s="3"/>
+      <c r="AQ37" s="3"/>
+      <c r="AR37" s="3"/>
+      <c r="AS37" s="3"/>
+      <c r="AT37" s="3"/>
+      <c r="AU37" s="3"/>
+      <c r="AV37" s="3"/>
+      <c r="AW37" s="3"/>
+      <c r="AX37" s="3"/>
+    </row>
+    <row r="38" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="3"/>
+      <c r="AG38" s="3"/>
+      <c r="AH38" s="3"/>
+      <c r="AI38" s="3"/>
+      <c r="AJ38" s="3"/>
+      <c r="AK38" s="3"/>
+      <c r="AL38" s="3"/>
+      <c r="AM38" s="3"/>
+      <c r="AN38" s="3"/>
+      <c r="AO38" s="3"/>
+      <c r="AP38" s="3"/>
+      <c r="AQ38" s="3"/>
+      <c r="AR38" s="3"/>
+      <c r="AS38" s="3"/>
+      <c r="AT38" s="3"/>
+      <c r="AU38" s="3"/>
+      <c r="AV38" s="3"/>
+      <c r="AW38" s="3"/>
+      <c r="AX38" s="3"/>
+    </row>
+    <row r="39" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+      <c r="AG39" s="3"/>
+      <c r="AH39" s="3"/>
+      <c r="AI39" s="3"/>
+      <c r="AJ39" s="3"/>
+      <c r="AK39" s="3"/>
+      <c r="AL39" s="3"/>
+      <c r="AM39" s="3"/>
+      <c r="AN39" s="3"/>
+      <c r="AO39" s="3"/>
+      <c r="AP39" s="3"/>
+      <c r="AQ39" s="3"/>
+      <c r="AR39" s="3"/>
+      <c r="AS39" s="3"/>
+      <c r="AT39" s="3"/>
+      <c r="AU39" s="3"/>
+      <c r="AV39" s="3"/>
+      <c r="AW39" s="3"/>
+      <c r="AX39" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="229">
@@ -2430,10 +2438,6 @@
     <mergeCell ref="A6:B7"/>
     <mergeCell ref="C6:J7"/>
     <mergeCell ref="K6:R7"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
@@ -2443,6 +2447,17 @@
     <mergeCell ref="C17:J17"/>
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="C19:J19"/>
+    <mergeCell ref="K16:R16"/>
+    <mergeCell ref="K17:R17"/>
+    <mergeCell ref="K18:R18"/>
+    <mergeCell ref="K19:R19"/>
+    <mergeCell ref="S16:W16"/>
+    <mergeCell ref="S17:W17"/>
+    <mergeCell ref="S18:W18"/>
+    <mergeCell ref="S19:W19"/>
+    <mergeCell ref="S8:W8"/>
+    <mergeCell ref="S9:W9"/>
+    <mergeCell ref="S10:W10"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A29:B29"/>
@@ -2463,10 +2478,13 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="K16:R16"/>
-    <mergeCell ref="K17:R17"/>
-    <mergeCell ref="K18:R18"/>
-    <mergeCell ref="K19:R19"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="X20:Z20"/>
+    <mergeCell ref="X21:Z21"/>
     <mergeCell ref="K20:R20"/>
     <mergeCell ref="K21:R21"/>
     <mergeCell ref="C26:J26"/>
@@ -2487,22 +2505,6 @@
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="C14:J14"/>
     <mergeCell ref="C15:J15"/>
-    <mergeCell ref="S16:W16"/>
-    <mergeCell ref="S17:W17"/>
-    <mergeCell ref="S18:W18"/>
-    <mergeCell ref="S19:W19"/>
-    <mergeCell ref="S8:W8"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="S10:W10"/>
-    <mergeCell ref="S11:W11"/>
-    <mergeCell ref="S12:W12"/>
-    <mergeCell ref="S13:W13"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="X20:Z20"/>
-    <mergeCell ref="X21:Z21"/>
     <mergeCell ref="S26:W26"/>
     <mergeCell ref="S27:W27"/>
     <mergeCell ref="X8:Z8"/>
@@ -2521,6 +2523,12 @@
     <mergeCell ref="S25:W25"/>
     <mergeCell ref="S14:W14"/>
     <mergeCell ref="S15:W15"/>
+    <mergeCell ref="S11:W11"/>
+    <mergeCell ref="S12:W12"/>
+    <mergeCell ref="S13:W13"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="X18:Z18"/>
     <mergeCell ref="AA17:AE17"/>
     <mergeCell ref="AA18:AE18"/>
     <mergeCell ref="AA19:AE19"/>
@@ -2578,6 +2586,8 @@
     <mergeCell ref="K25:R25"/>
     <mergeCell ref="K26:R26"/>
     <mergeCell ref="K27:R27"/>
+    <mergeCell ref="K37:R37"/>
+    <mergeCell ref="K38:R38"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
@@ -2598,15 +2608,12 @@
     <mergeCell ref="C37:J37"/>
     <mergeCell ref="C38:J38"/>
     <mergeCell ref="C39:J39"/>
-    <mergeCell ref="K30:R30"/>
-    <mergeCell ref="K31:R31"/>
-    <mergeCell ref="K32:R32"/>
-    <mergeCell ref="K33:R33"/>
-    <mergeCell ref="K34:R34"/>
-    <mergeCell ref="K35:R35"/>
-    <mergeCell ref="K36:R36"/>
-    <mergeCell ref="K37:R37"/>
-    <mergeCell ref="K38:R38"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="U38:V38"/>
     <mergeCell ref="K39:R39"/>
     <mergeCell ref="S30:T30"/>
     <mergeCell ref="S31:T31"/>
@@ -2618,15 +2625,13 @@
     <mergeCell ref="S37:T37"/>
     <mergeCell ref="S38:T38"/>
     <mergeCell ref="S39:T39"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="K30:R30"/>
+    <mergeCell ref="K31:R31"/>
+    <mergeCell ref="K32:R32"/>
+    <mergeCell ref="K33:R33"/>
+    <mergeCell ref="K34:R34"/>
+    <mergeCell ref="K35:R35"/>
+    <mergeCell ref="K36:R36"/>
     <mergeCell ref="U39:V39"/>
     <mergeCell ref="W30:AE30"/>
     <mergeCell ref="W31:AE31"/>
@@ -2648,6 +2653,9 @@
     <mergeCell ref="AF33:AX33"/>
     <mergeCell ref="AF34:AX34"/>
     <mergeCell ref="AF35:AX35"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="U32:V32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
